--- a/Input/Einkauf Kiosk  01.11.23.xlsx
+++ b/Input/Einkauf Kiosk  01.11.23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\50_Informatik\100_R\001_Kunden\TaB\Abrechnungen\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R Packages\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9894F7-31D9-4A8D-AE68-261509A80716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9F58BD-0620-4240-95AA-011A7AE38553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B11F654B-1788-4E85-B872-7BAC8A50C723}"/>
   </bookViews>
@@ -447,6 +447,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -467,115 +487,22 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color indexed="64"/>
+        </left>
+        <right style="hair">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom style="hair">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -611,9 +538,31 @@
         <bottom style="hair">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="hair">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="hair">
+          <color indexed="64"/>
+        </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -634,6 +583,25 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="hair">
@@ -657,6 +625,25 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="hair">
           <color indexed="64"/>
@@ -675,6 +662,25 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="hair">
@@ -698,7 +704,24 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="hair">
           <color indexed="64"/>
@@ -717,45 +740,22 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;CHF&quot;\ #,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="hair">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="hair">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -804,21 +804,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{920C96DA-BD94-48CE-B13B-7B1D665A1F1C}" name="Table1" displayName="Table1" ref="A1:I33" headerRowDxfId="19" totalsRowDxfId="18">
   <autoFilter ref="A1:I33" xr:uid="{920C96DA-BD94-48CE-B13B-7B1D665A1F1C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E8635A23-EB85-4436-9D20-6BDBA55F1730}" name="Artikel" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{3577DE02-0CD1-4A73-82D1-7EE95A59F5D7}" name="Artikelname Kassensystem" dataDxfId="16" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{76440182-93E9-4612-87D8-CE2EBC73BDDF}" name="Verkaufs-preis" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{B2930651-661A-4264-8410-185C3D54A8C7}" name="Menge" dataDxfId="14" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{AC0A2B1B-F4FB-4E77-BAD2-DD5CBF1419AB}" name="Einkaufs- preis" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{35E0FA36-7D3F-4BDD-9461-90D996CC4D33}" name="Lieferant" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{506E2FE9-BDDF-4C71-B77C-D5359CF307ED}" name="Gewinn" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{E8635A23-EB85-4436-9D20-6BDBA55F1730}" name="Artikel" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{3577DE02-0CD1-4A73-82D1-7EE95A59F5D7}" name="Artikelname Kassensystem" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{76440182-93E9-4612-87D8-CE2EBC73BDDF}" name="Verkaufs-preis" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{B2930651-661A-4264-8410-185C3D54A8C7}" name="Menge" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{AC0A2B1B-F4FB-4E77-BAD2-DD5CBF1419AB}" name="Einkaufs- preis" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{35E0FA36-7D3F-4BDD-9461-90D996CC4D33}" name="Lieferant" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{506E2FE9-BDDF-4C71-B77C-D5359CF307ED}" name="Gewinn" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1164AC8E-A4BE-4CBA-B422-27C4A81D46E1}" name="Anzahl Bestellung November 2023" dataDxfId="10" totalsRowDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{2DB050A1-5923-496C-9705-265C74DA448E}" name="Einkaufspreis gesamt" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="10" xr3:uid="{1164AC8E-A4BE-4CBA-B422-27C4A81D46E1}" name="Anzahl Bestellung November 2023" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{2DB050A1-5923-496C-9705-265C74DA448E}" name="Einkaufspreis gesamt" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Input/Einkauf Kiosk  01.11.23.xlsx
+++ b/Input/Einkauf Kiosk  01.11.23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R Packages\Kinoklub\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub 2024\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9F58BD-0620-4240-95AA-011A7AE38553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17AD3F6-CFDF-4F47-83CF-BBE350BF70D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B11F654B-1788-4E85-B872-7BAC8A50C723}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{B11F654B-1788-4E85-B872-7BAC8A50C723}"/>
   </bookViews>
   <sheets>
     <sheet name="KinoKiosk Angebot 2023" sheetId="1" r:id="rId1"/>
@@ -285,13 +285,13 @@
     <t>Caramel</t>
   </si>
   <si>
-    <t>Anzahl Bestellung November 2023</t>
-  </si>
-  <si>
     <t>Verkaufs-preis</t>
   </si>
   <si>
     <t>Einkaufs- preis</t>
+  </si>
+  <si>
+    <t>Anzahl Bestellung Feb 2024</t>
   </si>
 </sst>
 </file>
@@ -813,9 +813,9 @@
     <tableColumn id="7" xr3:uid="{506E2FE9-BDDF-4C71-B77C-D5359CF307ED}" name="Gewinn" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1164AC8E-A4BE-4CBA-B422-27C4A81D46E1}" name="Anzahl Bestellung November 2023" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{1164AC8E-A4BE-4CBA-B422-27C4A81D46E1}" name="Anzahl Bestellung Feb 2024" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="11" xr3:uid="{2DB050A1-5923-496C-9705-265C74DA448E}" name="Einkaufspreis gesamt" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1134,22 +1134,22 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="1" max="2" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
@@ -1157,13 +1157,13 @@
         <v>69</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>22</v>
@@ -1172,13 +1172,13 @@
         <v>23</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -1201,15 +1201,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>3.62</v>
       </c>
-      <c r="H2" s="1">
-        <v>30</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>41.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -1232,15 +1230,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>3.35</v>
       </c>
-      <c r="H3" s="1">
-        <v>15</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>24.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1261,15 +1257,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>5.5</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1290,15 +1284,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>5.6</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1319,15 +1311,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>3.85</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1348,15 +1338,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>3.5</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="11">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1379,15 +1367,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>2.95</v>
       </c>
-      <c r="H8" s="1">
-        <v>15</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>23.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1410,15 +1396,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>2.95</v>
       </c>
-      <c r="H9" s="1">
-        <v>15</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>23.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1441,15 +1425,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>3.0300000000000002</v>
       </c>
-      <c r="H10" s="1">
-        <v>20</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1472,15 +1454,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>3.0300000000000002</v>
       </c>
-      <c r="H11" s="1">
-        <v>20</v>
-      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1501,15 +1481,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>1.7</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
+      <c r="H12" s="2"/>
       <c r="I12" s="11">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1532,15 +1510,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>3.85</v>
       </c>
-      <c r="H13" s="1">
-        <v>20</v>
-      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1563,15 +1539,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>3.85</v>
       </c>
-      <c r="H14" s="1">
-        <v>20</v>
-      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1594,15 +1568,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>4.5600000000000005</v>
       </c>
-      <c r="H15" s="1">
-        <v>20</v>
-      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>28.799999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1625,15 +1597,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>3.88</v>
       </c>
-      <c r="H16" s="1">
-        <v>20</v>
-      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>22.400000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1656,15 +1626,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>4.5600000000000005</v>
       </c>
-      <c r="H17" s="1">
-        <v>20</v>
-      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>28.799999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -1687,15 +1655,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>4.5600000000000005</v>
       </c>
-      <c r="H18" s="1">
-        <v>20</v>
-      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>28.799999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
@@ -1718,15 +1684,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>3.9699999999999998</v>
       </c>
-      <c r="H19" s="4">
-        <v>20</v>
-      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="6">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1749,15 +1713,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>3.05</v>
       </c>
-      <c r="H20" s="3">
-        <v>14</v>
-      </c>
+      <c r="H20" s="3"/>
       <c r="I20" s="7">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1780,15 +1742,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>2.8</v>
       </c>
-      <c r="H21" s="1">
-        <v>10</v>
-      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
@@ -1811,15 +1771,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -1842,15 +1800,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>0.83000000000000007</v>
       </c>
-      <c r="H23" s="3">
-        <v>12</v>
-      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="7">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>50.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1873,15 +1829,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>1.94</v>
       </c>
-      <c r="H24" s="1">
-        <v>24</v>
-      </c>
+      <c r="H24" s="1"/>
       <c r="I24" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>25.44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1904,15 +1858,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>1.94</v>
       </c>
-      <c r="H25" s="1">
-        <v>25</v>
-      </c>
+      <c r="H25" s="1"/>
       <c r="I25" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1935,15 +1887,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>1.94</v>
       </c>
-      <c r="H26" s="1">
-        <v>20</v>
-      </c>
+      <c r="H26" s="1"/>
       <c r="I26" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>21.200000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1966,15 +1916,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>1.94</v>
       </c>
-      <c r="H27" s="1">
-        <v>20</v>
-      </c>
+      <c r="H27" s="1"/>
       <c r="I27" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>21.200000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>53</v>
       </c>
@@ -1997,15 +1945,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>2.0099999999999998</v>
       </c>
-      <c r="H28" s="4">
-        <v>18</v>
-      </c>
+      <c r="H28" s="4"/>
       <c r="I28" s="6">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>17.82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,15 +1974,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>1.7000000000000002</v>
       </c>
-      <c r="H29" s="1">
-        <v>5</v>
-      </c>
+      <c r="H29" s="1"/>
       <c r="I29" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2059,15 +2003,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>1.7000000000000002</v>
       </c>
-      <c r="H30" s="1">
-        <v>5</v>
-      </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2090,15 +2032,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>1.7000000000000002</v>
       </c>
-      <c r="H31" s="1">
-        <v>5</v>
-      </c>
+      <c r="H31" s="1"/>
       <c r="I31" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2121,15 +2061,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>1.7000000000000002</v>
       </c>
-      <c r="H32" s="1">
-        <v>5</v>
-      </c>
+      <c r="H32" s="1"/>
       <c r="I32" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2152,15 +2090,13 @@
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
         <v>1.7000000000000002</v>
       </c>
-      <c r="H33" s="1">
-        <v>5</v>
-      </c>
+      <c r="H33" s="1"/>
       <c r="I33" s="5">
-        <f>Table1[[#This Row],[Anzahl Bestellung November 2023]]*Table1[[#This Row],[Einkaufs- preis]]</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" s="8"/>
@@ -2186,17 +2122,17 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2207,7 +2143,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2218,7 +2154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2226,7 +2162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2234,7 +2170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2242,7 +2178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2250,7 +2186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2258,7 +2194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2266,7 +2202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2274,7 +2210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2282,7 +2218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2290,7 +2226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -2298,7 +2234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>

--- a/Input/Einkauf Kiosk  01.11.23.xlsx
+++ b/Input/Einkauf Kiosk  01.11.23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub 2024\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R Packages\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17AD3F6-CFDF-4F47-83CF-BBE350BF70D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C012FB03-91A7-4206-BE20-241B004A17C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{B11F654B-1788-4E85-B872-7BAC8A50C723}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B11F654B-1788-4E85-B872-7BAC8A50C723}"/>
   </bookViews>
   <sheets>
     <sheet name="KinoKiosk Angebot 2023" sheetId="1" r:id="rId1"/>
@@ -1134,22 +1134,22 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="1" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0.3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>53</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" s="8"/>
@@ -2125,14 +2125,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>

--- a/Input/Einkauf Kiosk  01.11.23.xlsx
+++ b/Input/Einkauf Kiosk  01.11.23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R Packages\Kinoklub\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C012FB03-91A7-4206-BE20-241B004A17C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E0D65D-E180-4DE6-9C21-293124DA9F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B11F654B-1788-4E85-B872-7BAC8A50C723}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{B11F654B-1788-4E85-B872-7BAC8A50C723}"/>
   </bookViews>
   <sheets>
     <sheet name="KinoKiosk Angebot 2023" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="84">
   <si>
     <t>Schüwo</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Kaffee/Espresso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tee </t>
   </si>
   <si>
     <t>Fever-Tree Tonic Water</t>
@@ -835,9 +832,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -875,7 +872,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -981,7 +978,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1123,7 +1120,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1134,62 +1131,62 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="1" max="2" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="I1" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="5">
         <v>1.38</v>
@@ -1207,18 +1204,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5">
         <v>1.65</v>
@@ -1236,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1263,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1290,12 +1287,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5">
         <v>4</v>
@@ -1305,7 +1302,7 @@
         <v>0.15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1317,12 +1314,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="5">
         <v>4</v>
@@ -1332,7 +1329,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1344,18 +1341,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5">
         <v>4.5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="5">
         <v>1.55</v>
@@ -1373,18 +1370,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5">
         <v>4.5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="5">
         <v>1.55</v>
@@ -1402,18 +1399,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="5">
         <v>0.97</v>
@@ -1431,18 +1428,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5">
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="5">
         <v>0.97</v>
@@ -1460,12 +1457,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
@@ -1475,7 +1472,7 @@
         <v>0.3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1487,18 +1484,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="5">
         <v>1.1499999999999999</v>
@@ -1516,18 +1513,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="5">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="5">
         <v>1.1499999999999999</v>
@@ -1545,18 +1542,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="5">
         <v>1.44</v>
@@ -1574,18 +1571,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="5">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="5">
         <v>1.1200000000000001</v>
@@ -1603,18 +1600,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="5">
         <v>1.44</v>
@@ -1632,18 +1629,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="5">
         <v>1.44</v>
@@ -1661,18 +1658,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="6">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="6">
         <v>1.03</v>
@@ -1690,24 +1687,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="7">
         <v>1.95</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1719,24 +1716,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="5">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="5">
         <v>2.2000000000000002</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1748,24 +1745,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="5">
         <v>5</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="5">
         <v>0.4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1777,24 +1774,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="7">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="7">
         <v>4.17</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1806,24 +1803,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="5">
         <v>1.06</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1835,24 +1832,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="5">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="5">
         <v>1.06</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1864,24 +1861,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="5">
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="5">
         <v>1.06</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1893,24 +1890,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="5">
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="5">
         <v>1.06</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1922,24 +1919,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="6">
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="6">
         <v>0.99</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" s="6">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1951,24 +1948,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="5">
         <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1980,24 +1977,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="5">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -2009,24 +2006,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="5">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -2038,24 +2035,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -2067,24 +2064,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="5">
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E33" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -2096,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" s="8"/>
@@ -2125,27 +2122,27 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -2154,89 +2151,89 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>12</v>

--- a/Input/Einkauf Kiosk  01.11.23.xlsx
+++ b/Input/Einkauf Kiosk  01.11.23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kinoklub\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E0D65D-E180-4DE6-9C21-293124DA9F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F35BE4-71A9-41E7-AA86-EB6B765F924D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{B11F654B-1788-4E85-B872-7BAC8A50C723}"/>
+    <workbookView xWindow="5460" yWindow="5568" windowWidth="15684" windowHeight="11832" xr2:uid="{B11F654B-1788-4E85-B872-7BAC8A50C723}"/>
   </bookViews>
   <sheets>
     <sheet name="KinoKiosk Angebot 2023" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
   <si>
     <t>Schüwo</t>
   </si>
@@ -108,21 +108,6 @@
     <t>Gewinn</t>
   </si>
   <si>
-    <t>Glalcé Schoggi</t>
-  </si>
-  <si>
-    <t>Glalcé Mocca</t>
-  </si>
-  <si>
-    <t>Glalcé Mango</t>
-  </si>
-  <si>
-    <t>Glalcé Erdbeere</t>
-  </si>
-  <si>
-    <t>Glalcé Caramel</t>
-  </si>
-  <si>
     <t>Gazosa Orange</t>
   </si>
   <si>
@@ -289,6 +274,54 @@
   </si>
   <si>
     <t>Anzahl Bestellung Feb 2024</t>
+  </si>
+  <si>
+    <t>Glacé Caramel</t>
+  </si>
+  <si>
+    <t>Glacé Erdbeere</t>
+  </si>
+  <si>
+    <t>Glacé Mango</t>
+  </si>
+  <si>
+    <t>Glacé Mocca</t>
+  </si>
+  <si>
+    <t>Glacé Schoggi</t>
+  </si>
+  <si>
+    <t>Glacé Schokolade</t>
+  </si>
+  <si>
+    <t>Schokolade</t>
+  </si>
+  <si>
+    <t>Glacé weisser Kaffee</t>
+  </si>
+  <si>
+    <t>Glacé Pistache</t>
+  </si>
+  <si>
+    <t>Pistache</t>
+  </si>
+  <si>
+    <t>Sorbet Zitronen-Rosmarin</t>
+  </si>
+  <si>
+    <t>Sorbet Himbeer</t>
+  </si>
+  <si>
+    <t>Zitronen-Rosmarinsorbet</t>
+  </si>
+  <si>
+    <t>Himbeersorbet</t>
+  </si>
+  <si>
+    <t>Crazy for Gelato</t>
+  </si>
+  <si>
+    <t>Weisser Kaffee</t>
   </si>
 </sst>
 </file>
@@ -329,7 +362,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -393,11 +426,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -422,6 +468,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,8 +846,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{920C96DA-BD94-48CE-B13B-7B1D665A1F1C}" name="Table1" displayName="Table1" ref="A1:I33" headerRowDxfId="19" totalsRowDxfId="18">
-  <autoFilter ref="A1:I33" xr:uid="{920C96DA-BD94-48CE-B13B-7B1D665A1F1C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{920C96DA-BD94-48CE-B13B-7B1D665A1F1C}" name="Table1" displayName="Table1" ref="A1:I38" headerRowDxfId="19" totalsRowDxfId="18">
+  <autoFilter ref="A1:I38" xr:uid="{920C96DA-BD94-48CE-B13B-7B1D665A1F1C}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E8635A23-EB85-4436-9D20-6BDBA55F1730}" name="Artikel" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16"/>
     <tableColumn id="4" xr3:uid="{3577DE02-0CD1-4A73-82D1-7EE95A59F5D7}" name="Artikelname Kassensystem" dataDxfId="15" totalsRowDxfId="14"/>
@@ -1128,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A677428D-B810-4F63-BFBD-79DB0D9DB708}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,16 +1199,16 @@
         <v>20</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>21</v>
@@ -1169,24 +1217,24 @@
         <v>22</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E2" s="5">
         <v>1.38</v>
@@ -1206,16 +1254,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E3" s="5">
         <v>1.65</v>
@@ -1292,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C6" s="5">
         <v>4</v>
@@ -1302,7 +1350,7 @@
         <v>0.15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G6" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1316,10 +1364,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C7" s="5">
         <v>4</v>
@@ -1329,7 +1377,7 @@
         <v>0.5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G7" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1352,7 +1400,7 @@
         <v>4.5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E8" s="5">
         <v>1.55</v>
@@ -1381,7 +1429,7 @@
         <v>4.5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E9" s="5">
         <v>1.55</v>
@@ -1410,7 +1458,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E10" s="5">
         <v>0.97</v>
@@ -1439,7 +1487,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E11" s="5">
         <v>0.97</v>
@@ -1472,7 +1520,7 @@
         <v>0.3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G12" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1489,13 +1537,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E13" s="5">
         <v>1.1499999999999999</v>
@@ -1518,13 +1566,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E14" s="5">
         <v>1.1499999999999999</v>
@@ -1544,16 +1592,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E15" s="5">
         <v>1.44</v>
@@ -1582,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E16" s="5">
         <v>1.1200000000000001</v>
@@ -1602,16 +1650,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E17" s="5">
         <v>1.44</v>
@@ -1631,16 +1679,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C18" s="5">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E18" s="5">
         <v>1.44</v>
@@ -1660,16 +1708,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C19" s="6">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E19" s="6">
         <v>1.03</v>
@@ -1698,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E20" s="7">
         <v>1.95</v>
@@ -1718,16 +1766,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E21" s="5">
         <v>2.2000000000000002</v>
@@ -1747,22 +1795,22 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C22" s="5">
         <v>5</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E22" s="5">
         <v>0.4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G22" s="5">
         <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
@@ -1785,7 +1833,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E23" s="7">
         <v>4.17</v>
@@ -1814,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E24" s="5">
         <v>1.06</v>
@@ -1843,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E25" s="5">
         <v>1.06</v>
@@ -1872,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E26" s="5">
         <v>1.06</v>
@@ -1901,7 +1949,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E27" s="5">
         <v>1.06</v>
@@ -1921,16 +1969,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C28" s="6">
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E28" s="6">
         <v>0.99</v>
@@ -1950,16 +1998,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C29" s="5">
         <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E29" s="5">
         <v>2.2999999999999998</v>
@@ -1979,16 +2027,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C30" s="5">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E30" s="5">
         <v>2.2999999999999998</v>
@@ -2008,16 +2056,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C31" s="5">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E31" s="5">
         <v>2.2999999999999998</v>
@@ -2037,16 +2085,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E32" s="5">
         <v>2.2999999999999998</v>
@@ -2066,16 +2114,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C33" s="5">
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E33" s="5">
         <v>2.2999999999999998</v>
@@ -2094,15 +2142,149 @@
       </c>
     </row>
     <row r="34" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34" s="8"/>
-      <c r="D34"/>
-      <c r="E34" s="8"/>
-      <c r="F34"/>
-      <c r="G34" s="8"/>
-      <c r="H34"/>
-      <c r="I34" s="8"/>
+      <c r="A34" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="5">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="17">
+        <v>3</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="17">
+        <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="17">
+        <v>3</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="17">
+        <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="5">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="17">
+        <v>3</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="17">
+        <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="5">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="17">
+        <v>3</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="17">
+        <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="5">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="17">
+        <v>3</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="17">
+        <f>Table1[[#This Row],[Verkaufs-preis]]-Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>1</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17">
+        <f>Table1[[#This Row],[Anzahl Bestellung Feb 2024]]*Table1[[#This Row],[Einkaufs- preis]]</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2131,18 +2313,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -2153,7 +2335,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -2161,7 +2343,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -2169,7 +2351,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -2177,7 +2359,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2185,7 +2367,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -2193,7 +2375,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -2201,7 +2383,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -2209,7 +2391,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -2217,7 +2399,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -2225,7 +2407,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -2233,7 +2415,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>12</v>
